--- a/设计文档/系统设定/人物属性设定_em.xlsx
+++ b/设计文档/系统设定/人物属性设定_em.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>人物属性设定</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -140,6 +140,46 @@
   </si>
   <si>
     <t>降低人物受到的魔法伤害，1点魔抗降低1点魔法伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗属性是影响战斗结算的属性，是基础属性的衍生属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物攻击时的命中率，是人物的技巧值的衍生属性，在战斗时减去攻击目标的闪避值得出最终的命中率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物技巧值的衍生属性，最终的必杀几率会加上目标的被必杀几率，发动必杀会造成当前攻击两倍的伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物的攻击力，数值等于人物的攻击属性加上当前装备的武器，根据人物装备的武器来判断攻击类型属于物理攻击还是魔法攻击，最终攻击会减去目标对应的防御值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度的衍生属性，在受到攻击时会按照闪避值减去攻击目标的命中率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,7 +745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>13</v>
       </c>
@@ -713,7 +753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>14</v>
       </c>
@@ -721,7 +761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>15</v>
       </c>
@@ -729,7 +769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>16</v>
       </c>
@@ -737,12 +777,55 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
